--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22402</v>
+        <v>21777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01315082027327895</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05493530909856442</v>
+        <v>0.05340202288457205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>15689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6303</v>
+        <v>6634</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32195</v>
+        <v>32477</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04327725198892905</v>
+        <v>0.04327725198892906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01738683690676926</v>
+        <v>0.01830099908206473</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0888115753976714</v>
+        <v>0.08958901528130392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>21051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10468</v>
+        <v>9363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41555</v>
+        <v>39268</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02732857028982072</v>
+        <v>0.02732857028982071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0135893003652436</v>
+        <v>0.01215552684365197</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05394655072421857</v>
+        <v>0.05097780116197774</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3436</v>
+        <v>3680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26310</v>
+        <v>25430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02661992034400083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008425432064172785</v>
+        <v>0.009023474440861273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06451702039876421</v>
+        <v>0.06235924794716866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>14935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6524</v>
+        <v>6697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28994</v>
+        <v>28709</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04119818855373492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01799627750871017</v>
+        <v>0.0184743754340876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07998015954232084</v>
+        <v>0.07919482442291573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -854,19 +854,19 @@
         <v>25790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13876</v>
+        <v>13887</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46518</v>
+        <v>44746</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03348057494466958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01801305281267152</v>
+        <v>0.01802747097173273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06038883605798192</v>
+        <v>0.05808828456241868</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>31994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17041</v>
+        <v>18574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54822</v>
+        <v>53527</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07845606988789335</v>
+        <v>0.07845606988789336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04178893993251832</v>
+        <v>0.0455479666346132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1344351175386408</v>
+        <v>0.131259575864316</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -904,19 +904,19 @@
         <v>34116</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20366</v>
+        <v>20215</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53510</v>
+        <v>53531</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0941101634639466</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05617955484693248</v>
+        <v>0.05576328363376753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1476102107266198</v>
+        <v>0.1476681755581625</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -925,19 +925,19 @@
         <v>66110</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45467</v>
+        <v>46878</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90811</v>
+        <v>93992</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08582301687821819</v>
+        <v>0.08582301687821817</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05902438240832253</v>
+        <v>0.06085641721508959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1178895964572443</v>
+        <v>0.1220189627306558</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>359581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>335766</v>
+        <v>335871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>380571</v>
+        <v>380300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.881773189494827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8233736178662076</v>
+        <v>0.8236311013631704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9332455736500276</v>
+        <v>0.9325815724798324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -975,19 +975,19 @@
         <v>297773</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273936</v>
+        <v>274136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>316797</v>
+        <v>316482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8214143959933894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7556599769330815</v>
+        <v>0.7562112466363531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8738925041235243</v>
+        <v>0.8730246360246859</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>325</v>
@@ -996,19 +996,19 @@
         <v>657354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>625577</v>
+        <v>626046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>683071</v>
+        <v>682684</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8533678378872916</v>
+        <v>0.8533678378872913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8121155675525285</v>
+        <v>0.8127252053472218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8867540724913155</v>
+        <v>0.886251982392767</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>10773</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4572</v>
+        <v>4948</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22041</v>
+        <v>22852</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02259059542582536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009587472384892236</v>
+        <v>0.01037626870017076</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04621860542862582</v>
+        <v>0.04791790793057477</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -1121,19 +1121,19 @@
         <v>18741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11382</v>
+        <v>11190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29008</v>
+        <v>30304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03740040971373144</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02271507297041317</v>
+        <v>0.02233105547744638</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05789067241328679</v>
+        <v>0.06047694641655069</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -1142,19 +1142,19 @@
         <v>29514</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19445</v>
+        <v>18435</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>42915</v>
+        <v>42773</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03017868304301772</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0198834604789179</v>
+        <v>0.01885011490907812</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04388179012788598</v>
+        <v>0.04373619471513966</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>17756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9222</v>
+        <v>9322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30372</v>
+        <v>30911</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03723348655627874</v>
+        <v>0.03723348655627873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01933723935284585</v>
+        <v>0.01954695787131367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06368672504135063</v>
+        <v>0.06481760799768151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1192,19 +1192,19 @@
         <v>23346</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14664</v>
+        <v>14944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34327</v>
+        <v>35364</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04659079397179257</v>
+        <v>0.04659079397179258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02926441070418787</v>
+        <v>0.0298233812923042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06850481471464467</v>
+        <v>0.07057595092529415</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1213,19 +1213,19 @@
         <v>41102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28805</v>
+        <v>29104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57189</v>
+        <v>59312</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04202787946017261</v>
+        <v>0.04202787946017259</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02945367678384925</v>
+        <v>0.02975972118322859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05847710349928658</v>
+        <v>0.0606482649477202</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>53160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38226</v>
+        <v>37892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71668</v>
+        <v>70132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1114717166741326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0801573319646121</v>
+        <v>0.07945688555695955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1502830117552812</v>
+        <v>0.1470605033363925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -1263,19 +1263,19 @@
         <v>89139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72810</v>
+        <v>73230</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106803</v>
+        <v>108672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1778932170083532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.145304282166408</v>
+        <v>0.1461425840547804</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.213144390616454</v>
+        <v>0.2168735599993602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>128</v>
@@ -1284,19 +1284,19 @@
         <v>142299</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120327</v>
+        <v>117267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169040</v>
+        <v>164991</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1455040248721511</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1230374817012558</v>
+        <v>0.1199081997942571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1728476190867309</v>
+        <v>0.1687070126810418</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>395201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>370900</v>
+        <v>375295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>413440</v>
+        <v>413760</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8287042013437632</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.77774784795225</v>
+        <v>0.7869628439466338</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8669511697744384</v>
+        <v>0.8676220728019756</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>333</v>
@@ -1334,19 +1334,19 @@
         <v>369857</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>350309</v>
+        <v>347943</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>390896</v>
+        <v>388780</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7381155793061228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6991045846919312</v>
+        <v>0.6943820656253595</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7801015102858122</v>
+        <v>0.7758794803561394</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>576</v>
@@ -1355,19 +1355,19 @@
         <v>765058</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>735495</v>
+        <v>734408</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>791779</v>
+        <v>791597</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7822894126246585</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7520608582353071</v>
+        <v>0.750949357435547</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8096123224897923</v>
+        <v>0.8094259280822047</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>28382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18374</v>
+        <v>17965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41218</v>
+        <v>40852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0457159198023113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02959605973264783</v>
+        <v>0.02893665133079999</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06639151104060249</v>
+        <v>0.06580212982849941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -1480,19 +1480,19 @@
         <v>41288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31843</v>
+        <v>31459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52480</v>
+        <v>52700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0663639898645525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05118269342825026</v>
+        <v>0.05056607980999613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08435357141585802</v>
+        <v>0.08470730596622321</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -1501,19 +1501,19 @@
         <v>69670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55944</v>
+        <v>56210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87433</v>
+        <v>88127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05605077267448735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04500787687051962</v>
+        <v>0.04522208649416765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07034190144315419</v>
+        <v>0.07089992029419787</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>35748</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24199</v>
+        <v>24710</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50018</v>
+        <v>49440</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05758103873852477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03897841263898691</v>
+        <v>0.03980088086021472</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08056534435224726</v>
+        <v>0.07963428108090946</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>71</v>
@@ -1551,19 +1551,19 @@
         <v>53493</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41226</v>
+        <v>41042</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>65132</v>
+        <v>66706</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08598273397003681</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06626503413996741</v>
+        <v>0.06596934671467021</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.10468995564069</v>
+        <v>0.1072211169752431</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>102</v>
@@ -1572,19 +1572,19 @@
         <v>89242</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>72977</v>
+        <v>72330</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>107910</v>
+        <v>107849</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07179676643865641</v>
+        <v>0.0717967664386564</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05871125576559157</v>
+        <v>0.05819127470859466</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0868156707571488</v>
+        <v>0.08676695605911172</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>94773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77320</v>
+        <v>77754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115460</v>
+        <v>113935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.152654305024014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1245414429827404</v>
+        <v>0.1252407346899226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1859754271215198</v>
+        <v>0.1835186477564098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -1622,19 +1622,19 @@
         <v>133520</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117324</v>
+        <v>116883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150370</v>
+        <v>149625</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2146146559511594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.188581133565754</v>
+        <v>0.1878721035584132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2416990643860779</v>
+        <v>0.2405014585339628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>289</v>
@@ -1643,19 +1643,19 @@
         <v>228294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>205702</v>
+        <v>203237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>251545</v>
+        <v>253146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1836669424671349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1654914336803786</v>
+        <v>0.1635082954177353</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2023734374795448</v>
+        <v>0.2036614781069293</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>461933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>438593</v>
+        <v>437992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>484393</v>
+        <v>483657</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7440487364351499</v>
+        <v>0.74404873643515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7064544740399579</v>
+        <v>0.7054867326849317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7802259430835169</v>
+        <v>0.7790408118456978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>525</v>
@@ -1693,19 +1693,19 @@
         <v>393838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>375473</v>
+        <v>374285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414135</v>
+        <v>415095</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6330386202142513</v>
+        <v>0.6330386202142514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6035196560706104</v>
+        <v>0.6016094440515367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6656633210087928</v>
+        <v>0.6672055873998015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>922</v>
@@ -1714,19 +1714,19 @@
         <v>855771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>826160</v>
+        <v>823724</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>887463</v>
+        <v>885878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6884855184197214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6646628480197507</v>
+        <v>0.6627028943703172</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7139824970050611</v>
+        <v>0.7127076088350466</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>42171</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29743</v>
+        <v>30195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58031</v>
+        <v>56732</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06019104713216449</v>
+        <v>0.06019104713216448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04245278161334307</v>
+        <v>0.04309812130719336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08282833842179597</v>
+        <v>0.08097492175766553</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -1839,19 +1839,19 @@
         <v>66271</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54723</v>
+        <v>52640</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79533</v>
+        <v>78800</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08998196734988013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07430238264037956</v>
+        <v>0.07147421809643785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1079891765924099</v>
+        <v>0.1069927322081233</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -1860,19 +1860,19 @@
         <v>108442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89879</v>
+        <v>90707</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128158</v>
+        <v>128907</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07545837590201919</v>
+        <v>0.0754583759020192</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06254122303503798</v>
+        <v>0.06311769162170751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08917775034158588</v>
+        <v>0.08969850209757664</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>60950</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46906</v>
+        <v>46897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78980</v>
+        <v>78009</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08699522037328976</v>
+        <v>0.08699522037328974</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06695013387148441</v>
+        <v>0.06693613745079917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1127287403599379</v>
+        <v>0.111343270932727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>153</v>
@@ -1910,19 +1910,19 @@
         <v>98110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84008</v>
+        <v>84547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113127</v>
+        <v>113643</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1332120561304905</v>
+        <v>0.1332120561304906</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1140643912573197</v>
+        <v>0.1147967178163643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1536012907580628</v>
+        <v>0.1543024042895272</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>211</v>
@@ -1931,19 +1931,19 @@
         <v>159060</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>138466</v>
+        <v>137671</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>181189</v>
+        <v>178430</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1106805453330726</v>
+        <v>0.1106805453330727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09635047755059599</v>
+        <v>0.09579676306511709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.126078550371479</v>
+        <v>0.1241588389573705</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>142932</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122137</v>
+        <v>123311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>166097</v>
+        <v>166342</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2040088041466453</v>
+        <v>0.2040088041466452</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1743279717801862</v>
+        <v>0.1760033665045432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2370720145306265</v>
+        <v>0.2374221323043663</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>306</v>
@@ -1981,19 +1981,19 @@
         <v>188213</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>170972</v>
+        <v>171064</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>208686</v>
+        <v>208584</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2555522566820653</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2321429450434274</v>
+        <v>0.2322672321801538</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2833508616639447</v>
+        <v>0.2832114651835306</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>453</v>
@@ -2002,19 +2002,19 @@
         <v>331145</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>302093</v>
+        <v>301528</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>361811</v>
+        <v>361535</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2304239276151609</v>
+        <v>0.230423927615161</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2102085894119664</v>
+        <v>0.2098150221859365</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.251762510774777</v>
+        <v>0.2515707394750086</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>454564</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>428413</v>
+        <v>426588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>481534</v>
+        <v>479571</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6488049283479006</v>
+        <v>0.6488049283479005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6114796117394761</v>
+        <v>0.6088743440915285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.687300456055826</v>
+        <v>0.6844978686432682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>583</v>
@@ -2052,19 +2052,19 @@
         <v>383901</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>360327</v>
+        <v>362004</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>403809</v>
+        <v>405434</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5212537198375639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4892450067039689</v>
+        <v>0.4915221558450047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5482854106766137</v>
+        <v>0.5504913098087515</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1007</v>
@@ -2073,19 +2073,19 @@
         <v>838465</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>804107</v>
+        <v>804978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>874268</v>
+        <v>872753</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5834371511497471</v>
+        <v>0.5834371511497473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5595300247908244</v>
+        <v>0.5601359761907593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6083508853003737</v>
+        <v>0.6072965297644957</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>58255</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45965</v>
+        <v>45693</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72626</v>
+        <v>73389</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09577291028548206</v>
+        <v>0.09577291028548204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07556807716189752</v>
+        <v>0.0751208097902142</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1193988705166587</v>
+        <v>0.1206525793577827</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -2198,19 +2198,19 @@
         <v>82058</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>70394</v>
+        <v>69490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96709</v>
+        <v>94713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1350546394211757</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1158565647940771</v>
+        <v>0.1143697252748873</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1591678324462854</v>
+        <v>0.1558819404007567</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>192</v>
@@ -2219,19 +2219,19 @@
         <v>140314</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>123987</v>
+        <v>122198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>159497</v>
+        <v>159135</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1154029366613559</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1019748573972435</v>
+        <v>0.100503157775796</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.131180994980103</v>
+        <v>0.130882778422937</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>47610</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37167</v>
+        <v>35982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61882</v>
+        <v>60425</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07827199999982931</v>
+        <v>0.0782719999998293</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06110388491078791</v>
+        <v>0.05915526626108708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1017344543537058</v>
+        <v>0.09934044086070437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>186</v>
@@ -2269,19 +2269,19 @@
         <v>114215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101249</v>
+        <v>100000</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>129452</v>
+        <v>130159</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1879787819824729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1666388849582723</v>
+        <v>0.1645833523245176</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2130569263011906</v>
+        <v>0.2142200373887553</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>239</v>
@@ -2290,19 +2290,19 @@
         <v>161825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>141683</v>
+        <v>141636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180845</v>
+        <v>182263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1330951218764755</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1165295720010072</v>
+        <v>0.1164902713540684</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1487384877045542</v>
+        <v>0.1499044615980858</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>151955</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132713</v>
+        <v>132542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173039</v>
+        <v>171713</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2498173424120248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2181833920869894</v>
+        <v>0.2179017193643409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2844794646607416</v>
+        <v>0.2823002214948899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>295</v>
@@ -2340,19 +2340,19 @@
         <v>166667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>151005</v>
+        <v>148302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183866</v>
+        <v>181970</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2743061980174232</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.248529787591594</v>
+        <v>0.2440809356851751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3026125839141262</v>
+        <v>0.2994925955089868</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>467</v>
@@ -2361,19 +2361,19 @@
         <v>318622</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>293555</v>
+        <v>293812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345133</v>
+        <v>347198</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.262055013513222</v>
+        <v>0.2620550135132221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2414384368549795</v>
+        <v>0.2416497713277418</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.283859895450879</v>
+        <v>0.2855577886089711</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>350444</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>327742</v>
+        <v>329224</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>374081</v>
+        <v>374161</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5761377473026639</v>
+        <v>0.5761377473026638</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5388150211210059</v>
+        <v>0.5412517280239504</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6149973610848442</v>
+        <v>0.6151282266469005</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>393</v>
@@ -2411,19 +2411,19 @@
         <v>244654</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>224353</v>
+        <v>225933</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>262395</v>
+        <v>263523</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4026603805789281</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3692477353229922</v>
+        <v>0.371848046023507</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.431859024089092</v>
+        <v>0.4337156166442283</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>764</v>
@@ -2432,19 +2432,19 @@
         <v>595098</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>565702</v>
+        <v>565394</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>625191</v>
+        <v>622904</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4894469279489465</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4652696729789828</v>
+        <v>0.465016370389202</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5141970978231495</v>
+        <v>0.5123164113428862</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>39566</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30065</v>
+        <v>29904</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50637</v>
+        <v>49985</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09719353682081965</v>
+        <v>0.09719353682081962</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07385469661557592</v>
+        <v>0.07346076567713908</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1243911973158022</v>
+        <v>0.1227883315273199</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>118</v>
@@ -2557,19 +2557,19 @@
         <v>68083</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58176</v>
+        <v>56859</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79441</v>
+        <v>79730</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1550276947179438</v>
+        <v>0.1550276947179437</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.132468410152454</v>
+        <v>0.1294714865135773</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.180890950245838</v>
+        <v>0.1815475578727731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>176</v>
@@ -2578,19 +2578,19 @@
         <v>107648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92359</v>
+        <v>93241</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123037</v>
+        <v>123126</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1272070425053486</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1091400360145457</v>
+        <v>0.1101819521947389</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1453919817655346</v>
+        <v>0.1454964899910313</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>44226</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34044</v>
+        <v>34569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55275</v>
+        <v>57522</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1086420153064951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08363057928212657</v>
+        <v>0.08492007103860091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1357850225843661</v>
+        <v>0.1413051262667646</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>134</v>
@@ -2628,19 +2628,19 @@
         <v>72305</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61996</v>
+        <v>60983</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84352</v>
+        <v>83919</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1646419830556468</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1411686304012695</v>
+        <v>0.1388601276680978</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1920722628325822</v>
+        <v>0.1910873323291813</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>196</v>
@@ -2649,19 +2649,19 @@
         <v>116531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>101133</v>
+        <v>102544</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>131396</v>
+        <v>134115</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1377036531254868</v>
+        <v>0.1377036531254869</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1195081091694167</v>
+        <v>0.1211756658004143</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1552689677155132</v>
+        <v>0.1584820514175221</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>101507</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>87024</v>
+        <v>86263</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>115584</v>
+        <v>117113</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2493536492946853</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2137762488904678</v>
+        <v>0.2119063664399961</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2839336127694879</v>
+        <v>0.2876892080516646</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>245</v>
@@ -2699,19 +2699,19 @@
         <v>119882</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>107309</v>
+        <v>108458</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>132792</v>
+        <v>134509</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.272976026171445</v>
+        <v>0.2729760261714449</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2443466232689233</v>
+        <v>0.246963521061978</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3023731428461963</v>
+        <v>0.3062834868335271</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>391</v>
@@ -2720,19 +2720,19 @@
         <v>221389</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>201547</v>
+        <v>202235</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>239778</v>
+        <v>242299</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2616126735193289</v>
+        <v>0.261612673519329</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2381654582087145</v>
+        <v>0.2389785018021968</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2833428456476247</v>
+        <v>0.2863219788272526</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>221782</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>204985</v>
+        <v>204439</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>238886</v>
+        <v>238536</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5448107985779999</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5035497041500056</v>
+        <v>0.5022086029381738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5868275040194002</v>
+        <v>0.5859679916465453</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>330</v>
@@ -2770,19 +2770,19 @@
         <v>178896</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>164557</v>
+        <v>164847</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>193346</v>
+        <v>193676</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4073542960549648</v>
+        <v>0.4073542960549647</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3747035251823315</v>
+        <v>0.3753634047438675</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4402562635657996</v>
+        <v>0.4410093742175024</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>634</v>
@@ -2791,19 +2791,19 @@
         <v>400678</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>378937</v>
+        <v>379276</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>425352</v>
+        <v>424265</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4734766308498356</v>
+        <v>0.4734766308498357</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4477854331072896</v>
+        <v>0.4481863286657761</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5026340058426065</v>
+        <v>0.5013495185166461</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>45359</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>35837</v>
+        <v>35965</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55724</v>
+        <v>57994</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1462246317508052</v>
+        <v>0.1462246317508053</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.115529140832545</v>
+        <v>0.1159410443019334</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1796386830513691</v>
+        <v>0.1869582739424559</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>149</v>
@@ -2916,19 +2916,19 @@
         <v>85054</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>72802</v>
+        <v>73394</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>98196</v>
+        <v>99345</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1830667492639471</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1566958894221661</v>
+        <v>0.1579701437728092</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2113510770162808</v>
+        <v>0.2138259369136546</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>215</v>
@@ -2937,19 +2937,19 @@
         <v>130413</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>115296</v>
+        <v>113820</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>148484</v>
+        <v>146795</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1683168056097858</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1488060309810441</v>
+        <v>0.1469010114084967</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1916394145031119</v>
+        <v>0.1894605415681097</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>45706</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36573</v>
+        <v>35934</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57637</v>
+        <v>56215</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1473439537127741</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1179026292338253</v>
+        <v>0.1158410566000567</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1858060550985036</v>
+        <v>0.1812214072705749</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>166</v>
@@ -2987,19 +2987,19 @@
         <v>86686</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>75112</v>
+        <v>75068</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>98996</v>
+        <v>99207</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1865778115337333</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1616661995367831</v>
+        <v>0.1615716728147386</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2130739764623106</v>
+        <v>0.2135277481080176</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>237</v>
@@ -3008,19 +3008,19 @@
         <v>132392</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>118025</v>
+        <v>117744</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>150444</v>
+        <v>148665</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1708703215397585</v>
+        <v>0.1708703215397584</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.15232865754562</v>
+        <v>0.1519657324241324</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1941700447586858</v>
+        <v>0.1918732206963454</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>84151</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>70984</v>
+        <v>72013</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>97005</v>
+        <v>98083</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2712829470866852</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2288340544278042</v>
+        <v>0.2321524687501963</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3127185414308061</v>
+        <v>0.3161946643790228</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>295</v>
@@ -3058,19 +3058,19 @@
         <v>142755</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>128226</v>
+        <v>127023</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>157535</v>
+        <v>155498</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3072575334487352</v>
+        <v>0.3072575334487351</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2759872206993363</v>
+        <v>0.27339671944272</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3390692742975924</v>
+        <v>0.3346848086388916</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>422</v>
@@ -3079,19 +3079,19 @@
         <v>226906</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209799</v>
+        <v>206997</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>246984</v>
+        <v>247270</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2928549106452896</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2707753522310265</v>
+        <v>0.2671589750330184</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3187679872917953</v>
+        <v>0.3191373255329652</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>134982</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>119017</v>
+        <v>120501</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>149424</v>
+        <v>149117</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4351484674497354</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3836806501553682</v>
+        <v>0.3884651351928074</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.481704332476246</v>
+        <v>0.4807159179409264</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>271</v>
@@ -3129,19 +3129,19 @@
         <v>150114</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>135910</v>
+        <v>134726</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>166868</v>
+        <v>165484</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3230979057535844</v>
+        <v>0.3230979057535843</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2925263572414341</v>
+        <v>0.2899776790883357</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.359157746866747</v>
+        <v>0.3561788366207168</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>465</v>
@@ -3150,19 +3150,19 @@
         <v>285096</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>262798</v>
+        <v>264673</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>306513</v>
+        <v>306644</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3679579622051661</v>
+        <v>0.367957962205166</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3391789166989934</v>
+        <v>0.3415987293119993</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3955996019433068</v>
+        <v>0.3957685267380222</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>229868</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>199181</v>
+        <v>201441</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>257815</v>
+        <v>260511</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06508757148913488</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05639823702937712</v>
+        <v>0.0570381935525263</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07300058897704809</v>
+        <v>0.07376409561947496</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>570</v>
@@ -3275,19 +3275,19 @@
         <v>377184</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>344792</v>
+        <v>347568</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>410559</v>
+        <v>411941</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1010242237302333</v>
+        <v>0.1010242237302332</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09234845524707457</v>
+        <v>0.09309184702802879</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1099632987175591</v>
+        <v>0.110333487781023</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>829</v>
@@ -3296,19 +3296,19 @@
         <v>607052</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>562775</v>
+        <v>564637</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>652936</v>
+        <v>654864</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08355527700426991</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0774609092945158</v>
+        <v>0.07771721071507486</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08987068348177814</v>
+        <v>0.09013614995081236</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>262852</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>229841</v>
+        <v>231552</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>297877</v>
+        <v>293308</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07442700689035826</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06507972254678919</v>
+        <v>0.06556437710925143</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08434422053781949</v>
+        <v>0.08305062839193895</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>739</v>
@@ -3346,19 +3346,19 @@
         <v>463090</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>426468</v>
+        <v>430316</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>497806</v>
+        <v>496971</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1240330501432527</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1142242981237729</v>
+        <v>0.1152550610917368</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.133331358546949</v>
+        <v>0.1331077823200825</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1032</v>
@@ -3367,19 +3367,19 @@
         <v>725942</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>680606</v>
+        <v>677113</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>769268</v>
+        <v>777450</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.09991935916678459</v>
+        <v>0.09991935916678457</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09367926744106712</v>
+        <v>0.0931984729625933</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1058828565148885</v>
+        <v>0.1070089927022143</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>660472</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>614326</v>
+        <v>612705</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>711145</v>
+        <v>708276</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1870136782054442</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1739473526605962</v>
+        <v>0.1734881309107966</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2013618111754006</v>
+        <v>0.200549345536374</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1443</v>
@@ -3417,19 +3417,19 @@
         <v>874292</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>825696</v>
+        <v>828244</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>914418</v>
+        <v>917814</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2341686498479178</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2211529011573448</v>
+        <v>0.2218353576312432</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.24491591400264</v>
+        <v>0.2458255801636517</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2182</v>
@@ -3438,19 +3438,19 @@
         <v>1534764</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1468122</v>
+        <v>1475886</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1599812</v>
+        <v>1607816</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2112464343349041</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.202073753423557</v>
+        <v>0.2031424112152219</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2201997052954938</v>
+        <v>0.2213014019982997</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2378487</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2319036</v>
+        <v>2316652</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2443015</v>
+        <v>2436146</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6734717434150627</v>
+        <v>0.6734717434150628</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6566380965173546</v>
+        <v>0.6559630862067501</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6917429776152584</v>
+        <v>0.6897980411839922</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2609</v>
@@ -3488,19 +3488,19 @@
         <v>2019033</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1966332</v>
+        <v>1965096</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2077014</v>
+        <v>2076469</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5407740762785963</v>
+        <v>0.5407740762785962</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5266587115839585</v>
+        <v>0.5263277121612219</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5563037127488455</v>
+        <v>0.5561575923501195</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4693</v>
@@ -3509,19 +3509,19 @@
         <v>4397520</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4317974</v>
+        <v>4311659</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4481870</v>
+        <v>4477569</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6052789294940414</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5943300938651567</v>
+        <v>0.5934608570253908</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6168888638300863</v>
+        <v>0.616296849450351</v>
       </c>
     </row>
     <row r="43">
